--- a/Original/Tables/NewTU_Leaders_ORG.xlsx
+++ b/Original/Tables/NewTU_Leaders_ORG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Leaders" sheetId="1" r:id="rId1"/>
     <sheet name="MajorCivApproachBiases" sheetId="2" r:id="rId2"/>
     <sheet name="MinorCivApproachBiases" sheetId="3" r:id="rId3"/>
-    <sheet name="Traits" sheetId="4" r:id="rId4"/>
+    <sheet name="_Traits" sheetId="4" r:id="rId4"/>
     <sheet name="Flavors" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -1102,13 +1102,28 @@
   </si>
   <si>
     <t>FLAVOR_ANTIAIR</t>
+  </si>
+  <si>
+    <t>MajorCivApproachType</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>MinorCivApproachType</t>
+  </si>
+  <si>
+    <t>FlavorType</t>
+  </si>
+  <si>
+    <t>Flavor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,8 +1162,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
@@ -1341,32 +1370,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,11 +1691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C46"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4807,10 +4843,10 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4820,29 +4856,55 @@
     <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="141" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="141" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E2" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5979,42 +6041,62 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="3.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>274</v>
+      <c r="B1" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>358</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -6034,7 +6116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>216</v>
       </c>
@@ -6054,7 +6136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>222</v>
       </c>
@@ -6074,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -6094,7 +6176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>170</v>
       </c>
@@ -6114,7 +6196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
@@ -6134,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
@@ -6154,7 +6236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>176</v>
       </c>
@@ -6174,7 +6256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>227</v>
       </c>
@@ -6194,7 +6276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -6214,7 +6296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
@@ -6234,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>181</v>
       </c>
@@ -6254,7 +6336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
@@ -6274,7 +6356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>232</v>
       </c>
@@ -6294,7 +6376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>237</v>
       </c>
@@ -6314,7 +6396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
@@ -6334,7 +6416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>128</v>
       </c>
@@ -6354,7 +6436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>186</v>
       </c>
@@ -6374,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>152</v>
       </c>
@@ -6394,7 +6476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>78</v>
       </c>
@@ -6414,7 +6496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
@@ -6434,7 +6516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>134</v>
       </c>
@@ -6454,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>146</v>
       </c>
@@ -6474,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>191</v>
       </c>
@@ -6494,7 +6576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>242</v>
       </c>
@@ -6514,7 +6596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>88</v>
       </c>
@@ -6534,7 +6616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>93</v>
       </c>
@@ -6554,7 +6636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>164</v>
       </c>
@@ -6574,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>98</v>
       </c>
@@ -6594,7 +6676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>196</v>
       </c>
@@ -6614,7 +6696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>140</v>
       </c>
@@ -6634,7 +6716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>247</v>
       </c>
@@ -6654,7 +6736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>252</v>
       </c>
@@ -6674,7 +6756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>103</v>
       </c>
@@ -6694,7 +6776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>108</v>
       </c>
@@ -6714,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>158</v>
       </c>
@@ -6734,7 +6816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>206</v>
       </c>
@@ -6754,7 +6836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>257</v>
       </c>
@@ -6774,7 +6856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>113</v>
       </c>
@@ -6794,7 +6876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>201</v>
       </c>
@@ -6814,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>118</v>
       </c>
@@ -6834,7 +6916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>211</v>
       </c>
@@ -6854,7 +6936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>123</v>
       </c>
@@ -6874,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>49</v>
       </c>
@@ -6889,10 +6971,10 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A46"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6903,10 +6985,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7269,10 +7351,10 @@
   <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7305,165 +7387,243 @@
     <col min="80" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="46" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:39" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL1" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM1" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="41" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D2" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F2" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G2" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H2" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I2" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J2" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K2" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L2" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M2" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N2" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O2" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P2" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q2" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R2" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S2" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T2" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U2" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V2" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W2" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X2" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y2" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z2" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA2" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB2" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC2" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AD2" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AE2" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="AF1" s="45" t="s">
+      <c r="AF2" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG2" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AH2" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AI2" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="AJ1" s="45" t="s">
+      <c r="AJ2" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK2" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="AL1" s="44" t="s">
+      <c r="AL2" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="AM1" s="45" t="s">
+      <c r="AM2" s="52" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -11361,8 +11521,8 @@
       <c r="AC35" s="25">
         <v>5</v>
       </c>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
       <c r="AF35" s="28">
         <v>5</v>
       </c>
@@ -11381,8 +11541,8 @@
       <c r="AK35" s="27">
         <v>5</v>
       </c>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="51"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="43"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
